--- a/data/pca/factorExposure/factorExposure_2015-10-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01258393754732922</v>
+        <v>0.01331210181961748</v>
       </c>
       <c r="C2">
-        <v>0.02900980102186353</v>
+        <v>0.03750899201387593</v>
       </c>
       <c r="D2">
-        <v>0.09038199382058486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1236561015256577</v>
+      </c>
+      <c r="E2">
+        <v>0.0640008655314484</v>
+      </c>
+      <c r="F2">
+        <v>0.03905410192519222</v>
+      </c>
+      <c r="G2">
+        <v>-0.08973647813832866</v>
+      </c>
+      <c r="H2">
+        <v>-0.08226010266854869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01608119314522938</v>
+        <v>0.01075915735065078</v>
       </c>
       <c r="C3">
-        <v>0.05610179296038027</v>
+        <v>0.04349625360599142</v>
       </c>
       <c r="D3">
-        <v>0.08242824886457359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05405828033446553</v>
+      </c>
+      <c r="E3">
+        <v>0.04725872768012044</v>
+      </c>
+      <c r="F3">
+        <v>0.07336374612372876</v>
+      </c>
+      <c r="G3">
+        <v>-0.1177498208144065</v>
+      </c>
+      <c r="H3">
+        <v>-0.02831324436657329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04838557264505829</v>
+        <v>0.05142784182573302</v>
       </c>
       <c r="C4">
-        <v>0.05420157395131219</v>
+        <v>0.07067958891761246</v>
       </c>
       <c r="D4">
-        <v>0.122179708983745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1439093731164447</v>
+      </c>
+      <c r="E4">
+        <v>0.05479601171838169</v>
+      </c>
+      <c r="F4">
+        <v>0.03396986046665936</v>
+      </c>
+      <c r="G4">
+        <v>0.0444318057590538</v>
+      </c>
+      <c r="H4">
+        <v>-0.009759341385455502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03886514719290406</v>
+        <v>0.03866164789493896</v>
       </c>
       <c r="C6">
-        <v>0.01845391278487247</v>
+        <v>0.02870934800630874</v>
       </c>
       <c r="D6">
-        <v>0.1394426482268832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1407691890312249</v>
+      </c>
+      <c r="E6">
+        <v>0.0252563151012727</v>
+      </c>
+      <c r="F6">
+        <v>0.02130959348362234</v>
+      </c>
+      <c r="G6">
+        <v>-0.002788593492303237</v>
+      </c>
+      <c r="H6">
+        <v>-0.0510291271607349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01577272829789195</v>
+        <v>0.0126760145941634</v>
       </c>
       <c r="C7">
-        <v>0.02740829830074343</v>
+        <v>0.03410071475237986</v>
       </c>
       <c r="D7">
-        <v>0.1017868495161692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09595939192934569</v>
+      </c>
+      <c r="E7">
+        <v>0.02021536154427302</v>
+      </c>
+      <c r="F7">
+        <v>0.027137140910147</v>
+      </c>
+      <c r="G7">
+        <v>-0.03355527757628515</v>
+      </c>
+      <c r="H7">
+        <v>-0.08634417084709187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009030536522695053</v>
+        <v>0.007036367016727576</v>
       </c>
       <c r="C8">
-        <v>0.02708919688408768</v>
+        <v>0.03863210882328858</v>
       </c>
       <c r="D8">
-        <v>0.0666834675326675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0858614326839202</v>
+      </c>
+      <c r="E8">
+        <v>0.04124781403636563</v>
+      </c>
+      <c r="F8">
+        <v>0.06670840350751472</v>
+      </c>
+      <c r="G8">
+        <v>-0.03827594955783616</v>
+      </c>
+      <c r="H8">
+        <v>-0.05534033585880944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04059118713098698</v>
+        <v>0.04119898601673554</v>
       </c>
       <c r="C9">
-        <v>0.05149190750341995</v>
+        <v>0.06582650761966823</v>
       </c>
       <c r="D9">
-        <v>0.1064714665011057</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1192782502533736</v>
+      </c>
+      <c r="E9">
+        <v>0.04278759981620846</v>
+      </c>
+      <c r="F9">
+        <v>0.0148431956551771</v>
+      </c>
+      <c r="G9">
+        <v>0.02245379474347405</v>
+      </c>
+      <c r="H9">
+        <v>-0.01598813267553744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1134102082884095</v>
+        <v>0.1464718170622779</v>
       </c>
       <c r="C10">
-        <v>-0.1851588433299607</v>
+        <v>-0.187326280337243</v>
       </c>
       <c r="D10">
-        <v>-0.004959777610823442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004562645343469021</v>
+      </c>
+      <c r="E10">
+        <v>0.04501105149461778</v>
+      </c>
+      <c r="F10">
+        <v>0.04392736392303496</v>
+      </c>
+      <c r="G10">
+        <v>0.0147759074087094</v>
+      </c>
+      <c r="H10">
+        <v>0.02689186591234741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0301118487443847</v>
+        <v>0.02792635330705007</v>
       </c>
       <c r="C11">
-        <v>0.04021686202624446</v>
+        <v>0.04483362670848361</v>
       </c>
       <c r="D11">
-        <v>0.05645112325909436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05650359859624033</v>
+      </c>
+      <c r="E11">
+        <v>-0.008076879120586841</v>
+      </c>
+      <c r="F11">
+        <v>-0.0001235041764132228</v>
+      </c>
+      <c r="G11">
+        <v>-0.01241150770069759</v>
+      </c>
+      <c r="H11">
+        <v>-0.03613736281091322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03666932679673467</v>
+        <v>0.03338758365107749</v>
       </c>
       <c r="C12">
-        <v>0.04210422762069425</v>
+        <v>0.0475242985334998</v>
       </c>
       <c r="D12">
-        <v>0.05897206515872918</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05569158782142874</v>
+      </c>
+      <c r="E12">
+        <v>0.0007186063211559141</v>
+      </c>
+      <c r="F12">
+        <v>-0.006785284339737107</v>
+      </c>
+      <c r="G12">
+        <v>-0.02157983586673121</v>
+      </c>
+      <c r="H12">
+        <v>-0.03680790008271761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01211925926804642</v>
+        <v>0.01643633048113243</v>
       </c>
       <c r="C13">
-        <v>0.03264587933113135</v>
+        <v>0.03960116702925855</v>
       </c>
       <c r="D13">
-        <v>0.131275436133983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1532705212717223</v>
+      </c>
+      <c r="E13">
+        <v>0.03551849058780825</v>
+      </c>
+      <c r="F13">
+        <v>0.05771812103487674</v>
+      </c>
+      <c r="G13">
+        <v>-0.03528160189865039</v>
+      </c>
+      <c r="H13">
+        <v>-0.07796787616827298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.003428617505622292</v>
+        <v>0.006652692347628346</v>
       </c>
       <c r="C14">
-        <v>0.02061133495493138</v>
+        <v>0.02361795811520329</v>
       </c>
       <c r="D14">
-        <v>0.08567044168903039</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09282454867077783</v>
+      </c>
+      <c r="E14">
+        <v>0.03258063225604856</v>
+      </c>
+      <c r="F14">
+        <v>0.008772289004485402</v>
+      </c>
+      <c r="G14">
+        <v>-0.03553654027433595</v>
+      </c>
+      <c r="H14">
+        <v>-0.10141002432177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002595035957499332</v>
+        <v>0.001056729098230312</v>
       </c>
       <c r="C15">
-        <v>0.002137017115409892</v>
+        <v>0.01205109467299466</v>
       </c>
       <c r="D15">
-        <v>0.002797864921617681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03548018950837979</v>
+      </c>
+      <c r="E15">
+        <v>0.01040262479353136</v>
+      </c>
+      <c r="F15">
+        <v>0.001156670490944404</v>
+      </c>
+      <c r="G15">
+        <v>-0.009127678502146911</v>
+      </c>
+      <c r="H15">
+        <v>-0.01738558926458738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03037071485282296</v>
+        <v>0.02922094573767894</v>
       </c>
       <c r="C16">
-        <v>0.04365692864104575</v>
+        <v>0.04562518177615367</v>
       </c>
       <c r="D16">
-        <v>0.06543806818256243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0622670581380678</v>
+      </c>
+      <c r="E16">
+        <v>0.00720232889283592</v>
+      </c>
+      <c r="F16">
+        <v>-0.004406504817250172</v>
+      </c>
+      <c r="G16">
+        <v>-0.01532213118091627</v>
+      </c>
+      <c r="H16">
+        <v>-0.0521570769281268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006471977213253066</v>
+        <v>0.00483748153584933</v>
       </c>
       <c r="C19">
-        <v>0.03066371241008826</v>
+        <v>0.02509481881541724</v>
       </c>
       <c r="D19">
-        <v>0.1462635580211355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1132764905678153</v>
+      </c>
+      <c r="E19">
+        <v>0.06219912270311644</v>
+      </c>
+      <c r="F19">
+        <v>0.0004488180483954084</v>
+      </c>
+      <c r="G19">
+        <v>-0.04551702927825779</v>
+      </c>
+      <c r="H19">
+        <v>-0.04153810011279573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01234427959729584</v>
+        <v>0.01461391913484009</v>
       </c>
       <c r="C20">
-        <v>0.0321419166319746</v>
+        <v>0.03486953368952667</v>
       </c>
       <c r="D20">
-        <v>0.08335617830994875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1000526104206896</v>
+      </c>
+      <c r="E20">
+        <v>0.05162110722480438</v>
+      </c>
+      <c r="F20">
+        <v>0.01078656626633034</v>
+      </c>
+      <c r="G20">
+        <v>-0.01359742298037728</v>
+      </c>
+      <c r="H20">
+        <v>-0.05831896637646307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00464820563903089</v>
+        <v>0.008514562856953123</v>
       </c>
       <c r="C21">
-        <v>0.0276454433920487</v>
+        <v>0.03759615648790951</v>
       </c>
       <c r="D21">
-        <v>0.1278233592040526</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.139930441830174</v>
+      </c>
+      <c r="E21">
+        <v>0.0836041035232746</v>
+      </c>
+      <c r="F21">
+        <v>0.02908976371658114</v>
+      </c>
+      <c r="G21">
+        <v>-0.02164018690908255</v>
+      </c>
+      <c r="H21">
+        <v>-0.08012540207453656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004023409369249708</v>
+        <v>0.005085910379078795</v>
       </c>
       <c r="C22">
-        <v>0.03053214102754371</v>
+        <v>0.04282971792181258</v>
       </c>
       <c r="D22">
-        <v>0.0980846855391147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1561980073162698</v>
+      </c>
+      <c r="E22">
+        <v>0.02497707622464727</v>
+      </c>
+      <c r="F22">
+        <v>0.09746174033338878</v>
+      </c>
+      <c r="G22">
+        <v>-0.0464768548577872</v>
+      </c>
+      <c r="H22">
+        <v>0.00662368412484581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004137626552475833</v>
+        <v>0.005223930463677923</v>
       </c>
       <c r="C23">
-        <v>0.03050165403376393</v>
+        <v>0.04331118357342578</v>
       </c>
       <c r="D23">
-        <v>0.09734900696788475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1555122540731437</v>
+      </c>
+      <c r="E23">
+        <v>0.02543522098015824</v>
+      </c>
+      <c r="F23">
+        <v>0.0974881959687985</v>
+      </c>
+      <c r="G23">
+        <v>-0.04560260957250332</v>
+      </c>
+      <c r="H23">
+        <v>0.006923450437724817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0331722604633559</v>
+        <v>0.03013733401922376</v>
       </c>
       <c r="C24">
-        <v>0.05155106541848958</v>
+        <v>0.05742194272844874</v>
       </c>
       <c r="D24">
-        <v>0.06371919242836208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0641597460263675</v>
+      </c>
+      <c r="E24">
+        <v>0.009902391145212736</v>
+      </c>
+      <c r="F24">
+        <v>-0.002637720166790637</v>
+      </c>
+      <c r="G24">
+        <v>-0.0117103449044133</v>
+      </c>
+      <c r="H24">
+        <v>-0.06081628526090149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03648327403120784</v>
+        <v>0.03413500442992367</v>
       </c>
       <c r="C25">
-        <v>0.05038340233226413</v>
+        <v>0.0548630469967807</v>
       </c>
       <c r="D25">
-        <v>0.06288819034141173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06036436768279119</v>
+      </c>
+      <c r="E25">
+        <v>0.01081395935334988</v>
+      </c>
+      <c r="F25">
+        <v>0.003170729467090036</v>
+      </c>
+      <c r="G25">
+        <v>-0.01406603275729292</v>
+      </c>
+      <c r="H25">
+        <v>-0.03149465600258363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01593607087371948</v>
+        <v>0.01792314386377971</v>
       </c>
       <c r="C26">
-        <v>0.01159760148460691</v>
+        <v>0.01770918997255376</v>
       </c>
       <c r="D26">
-        <v>0.05675506614169798</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06494058289338556</v>
+      </c>
+      <c r="E26">
+        <v>0.02056118074377065</v>
+      </c>
+      <c r="F26">
+        <v>0.01113292404815228</v>
+      </c>
+      <c r="G26">
+        <v>-0.01810054509041418</v>
+      </c>
+      <c r="H26">
+        <v>-0.06357589804351517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1617436478675612</v>
+        <v>0.2079437728633826</v>
       </c>
       <c r="C28">
-        <v>-0.2530775402821689</v>
+        <v>-0.2500600830751551</v>
       </c>
       <c r="D28">
-        <v>-0.03140442638292546</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01222298080244903</v>
+      </c>
+      <c r="E28">
+        <v>0.08238379879496208</v>
+      </c>
+      <c r="F28">
+        <v>0.0361628131821081</v>
+      </c>
+      <c r="G28">
+        <v>0.03416590384165013</v>
+      </c>
+      <c r="H28">
+        <v>0.0255915660822974</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001653980229345481</v>
+        <v>0.004189054724828652</v>
       </c>
       <c r="C29">
-        <v>0.02027543635963939</v>
+        <v>0.02259262245691232</v>
       </c>
       <c r="D29">
-        <v>0.06982777793927779</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09068887426737816</v>
+      </c>
+      <c r="E29">
+        <v>0.02445370605332198</v>
+      </c>
+      <c r="F29">
+        <v>0.02323056059692041</v>
+      </c>
+      <c r="G29">
+        <v>-0.02162144727468554</v>
+      </c>
+      <c r="H29">
+        <v>-0.1046241834597462</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02903651221328562</v>
+        <v>0.03742163303605953</v>
       </c>
       <c r="C30">
-        <v>0.04539967079280156</v>
+        <v>0.06152523010990513</v>
       </c>
       <c r="D30">
-        <v>0.1574606320084217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1725101123752253</v>
+      </c>
+      <c r="E30">
+        <v>0.02694089621912862</v>
+      </c>
+      <c r="F30">
+        <v>0.01336438245103232</v>
+      </c>
+      <c r="G30">
+        <v>0.003916536483718273</v>
+      </c>
+      <c r="H30">
+        <v>-0.07503156183004588</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06044476567926175</v>
+        <v>0.05256022419708908</v>
       </c>
       <c r="C31">
-        <v>0.06252635397655429</v>
+        <v>0.0761046515084678</v>
       </c>
       <c r="D31">
-        <v>0.06582902170756733</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05177380517545291</v>
+      </c>
+      <c r="E31">
+        <v>0.02678091398868757</v>
+      </c>
+      <c r="F31">
+        <v>0.04054557479682992</v>
+      </c>
+      <c r="G31">
+        <v>-0.005603680502036293</v>
+      </c>
+      <c r="H31">
+        <v>-0.01995258196112141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.007684367784082783</v>
+        <v>0.01495060591823868</v>
       </c>
       <c r="C32">
-        <v>0.01149571937600736</v>
+        <v>0.01521589228557104</v>
       </c>
       <c r="D32">
-        <v>0.06351767605751686</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1085505623649786</v>
+      </c>
+      <c r="E32">
+        <v>0.08414301207905653</v>
+      </c>
+      <c r="F32">
+        <v>0.04558400158688648</v>
+      </c>
+      <c r="G32">
+        <v>-0.01704116787920515</v>
+      </c>
+      <c r="H32">
+        <v>-0.06861162981643662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.021728459997433</v>
+        <v>0.02365965424896702</v>
       </c>
       <c r="C33">
-        <v>0.03343195776338913</v>
+        <v>0.04330864335603776</v>
       </c>
       <c r="D33">
-        <v>0.1306721858654684</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1323197101784182</v>
+      </c>
+      <c r="E33">
+        <v>0.04118287241985675</v>
+      </c>
+      <c r="F33">
+        <v>0.02502551973308422</v>
+      </c>
+      <c r="G33">
+        <v>-0.02309663406702905</v>
+      </c>
+      <c r="H33">
+        <v>-0.059580909214775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03160256921894752</v>
+        <v>0.02675077974545214</v>
       </c>
       <c r="C34">
-        <v>0.0647095662194711</v>
+        <v>0.06240799623902282</v>
       </c>
       <c r="D34">
-        <v>0.06542333627587982</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05366467181102149</v>
+      </c>
+      <c r="E34">
+        <v>-0.006025183645881991</v>
+      </c>
+      <c r="F34">
+        <v>-0.009439768817104831</v>
+      </c>
+      <c r="G34">
+        <v>-0.02668413018211053</v>
+      </c>
+      <c r="H34">
+        <v>-0.04548889266051725</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0007072829479722537</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009610043083690949</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.006877263383845467</v>
+      </c>
+      <c r="E35">
+        <v>-0.0003981405187301919</v>
+      </c>
+      <c r="F35">
+        <v>0.001356161527936236</v>
+      </c>
+      <c r="G35">
+        <v>-0.00195543182902956</v>
+      </c>
+      <c r="H35">
+        <v>-0.00431014158923447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01903992948156883</v>
+        <v>0.01924607751772685</v>
       </c>
       <c r="C36">
-        <v>0.005719735607127011</v>
+        <v>0.01513771735029635</v>
       </c>
       <c r="D36">
-        <v>0.0728255805355611</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07641994086749757</v>
+      </c>
+      <c r="E36">
+        <v>0.0291828725081611</v>
+      </c>
+      <c r="F36">
+        <v>0.01191754531463845</v>
+      </c>
+      <c r="G36">
+        <v>-0.004782737781178586</v>
+      </c>
+      <c r="H36">
+        <v>-0.0563619473123847</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01893523551941039</v>
+        <v>0.02020792865886792</v>
       </c>
       <c r="C38">
-        <v>0.01540658787461706</v>
+        <v>0.02086373840212765</v>
       </c>
       <c r="D38">
-        <v>0.05678160639476212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0626104052258685</v>
+      </c>
+      <c r="E38">
+        <v>0.03826367026249505</v>
+      </c>
+      <c r="F38">
+        <v>0.001435607999290573</v>
+      </c>
+      <c r="G38">
+        <v>-0.04801378166723948</v>
+      </c>
+      <c r="H38">
+        <v>-0.03368220765587836</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03529094037872783</v>
+        <v>0.03392422993140061</v>
       </c>
       <c r="C39">
-        <v>0.0537638521437785</v>
+        <v>0.06830680699152331</v>
       </c>
       <c r="D39">
-        <v>0.08647676633427114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1013543534896479</v>
+      </c>
+      <c r="E39">
+        <v>0.008723690508932716</v>
+      </c>
+      <c r="F39">
+        <v>-0.02534429976584345</v>
+      </c>
+      <c r="G39">
+        <v>-0.01769638224323289</v>
+      </c>
+      <c r="H39">
+        <v>-0.09786414113233764</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01536893768850827</v>
+        <v>0.01141985091303964</v>
       </c>
       <c r="C40">
-        <v>0.04210088521601224</v>
+        <v>0.04012457023815016</v>
       </c>
       <c r="D40">
-        <v>0.07228909545370259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08440008522212306</v>
+      </c>
+      <c r="E40">
+        <v>0.05609547390725536</v>
+      </c>
+      <c r="F40">
+        <v>0.09837595604443775</v>
+      </c>
+      <c r="G40">
+        <v>-0.1291134105392188</v>
+      </c>
+      <c r="H40">
+        <v>-0.1254620592253329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0240436660624386</v>
+        <v>0.02348152567690029</v>
       </c>
       <c r="C41">
-        <v>0.002363006012938516</v>
+        <v>0.009276944303590629</v>
       </c>
       <c r="D41">
-        <v>0.06430820389580438</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05346859115928684</v>
+      </c>
+      <c r="E41">
+        <v>0.05060384477820757</v>
+      </c>
+      <c r="F41">
+        <v>0.01140995692426845</v>
+      </c>
+      <c r="G41">
+        <v>-0.03084769722634274</v>
+      </c>
+      <c r="H41">
+        <v>-0.03493228110130049</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02745578607834551</v>
+        <v>0.02323912430305545</v>
       </c>
       <c r="C43">
-        <v>0.01353536478824879</v>
+        <v>0.01920748724224177</v>
       </c>
       <c r="D43">
-        <v>0.1032404495902741</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08318960556752705</v>
+      </c>
+      <c r="E43">
+        <v>0.02781749820320487</v>
+      </c>
+      <c r="F43">
+        <v>0.01016191121668144</v>
+      </c>
+      <c r="G43">
+        <v>-0.03710268870977385</v>
+      </c>
+      <c r="H43">
+        <v>-0.04622634452279149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01225769380714736</v>
+        <v>0.01537062777508827</v>
       </c>
       <c r="C44">
-        <v>0.04162841063910071</v>
+        <v>0.04256363101178637</v>
       </c>
       <c r="D44">
-        <v>0.07541300416886315</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1013262385479171</v>
+      </c>
+      <c r="E44">
+        <v>0.06405669245933299</v>
+      </c>
+      <c r="F44">
+        <v>0.02931737138686957</v>
+      </c>
+      <c r="G44">
+        <v>-0.03254065679195183</v>
+      </c>
+      <c r="H44">
+        <v>-0.0660928918038815</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01297181569236612</v>
+        <v>0.01281871599408654</v>
       </c>
       <c r="C46">
-        <v>0.02415251577567286</v>
+        <v>0.03041888217386196</v>
       </c>
       <c r="D46">
-        <v>0.08038033565734723</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08835317948041886</v>
+      </c>
+      <c r="E46">
+        <v>0.03703931545749897</v>
+      </c>
+      <c r="F46">
+        <v>0.001241859718984988</v>
+      </c>
+      <c r="G46">
+        <v>-0.02221975155454773</v>
+      </c>
+      <c r="H46">
+        <v>-0.09163997052094346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0917091026580321</v>
+        <v>0.0807525273936727</v>
       </c>
       <c r="C47">
-        <v>0.07336379324514887</v>
+        <v>0.09276595872789664</v>
       </c>
       <c r="D47">
-        <v>0.04169903732593578</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03285139125914491</v>
+      </c>
+      <c r="E47">
+        <v>0.03927284479261177</v>
+      </c>
+      <c r="F47">
+        <v>0.03276861978325959</v>
+      </c>
+      <c r="G47">
+        <v>-0.004627636876749156</v>
+      </c>
+      <c r="H47">
+        <v>0.05268391772967291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01123765241963481</v>
+        <v>0.01427612099873771</v>
       </c>
       <c r="C48">
-        <v>0.0164230887470855</v>
+        <v>0.02031521858629853</v>
       </c>
       <c r="D48">
-        <v>0.06028429585326792</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07034978785249221</v>
+      </c>
+      <c r="E48">
+        <v>0.0528769978747961</v>
+      </c>
+      <c r="F48">
+        <v>0.01223539749673623</v>
+      </c>
+      <c r="G48">
+        <v>-0.009414007461569913</v>
+      </c>
+      <c r="H48">
+        <v>-0.06216895206990713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05545527713572921</v>
+        <v>0.04978107944733842</v>
       </c>
       <c r="C50">
-        <v>0.05725979400465896</v>
+        <v>0.06950957660175575</v>
       </c>
       <c r="D50">
-        <v>0.05582778786702167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05024139011028628</v>
+      </c>
+      <c r="E50">
+        <v>0.03586083916335882</v>
+      </c>
+      <c r="F50">
+        <v>0.04133289297233259</v>
+      </c>
+      <c r="G50">
+        <v>-0.03796138390655521</v>
+      </c>
+      <c r="H50">
+        <v>-0.01495486195127045</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009065874177720003</v>
+        <v>0.01027086965411512</v>
       </c>
       <c r="C51">
-        <v>0.01542005442890703</v>
+        <v>0.01913149236926565</v>
       </c>
       <c r="D51">
-        <v>0.07589179666306117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08850082509885968</v>
+      </c>
+      <c r="E51">
+        <v>0.01199187269455716</v>
+      </c>
+      <c r="F51">
+        <v>0.008366406977157419</v>
+      </c>
+      <c r="G51">
+        <v>-0.02127967157290368</v>
+      </c>
+      <c r="H51">
+        <v>-0.08699142217515303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08666262883685136</v>
+        <v>0.08501897750560926</v>
       </c>
       <c r="C53">
-        <v>0.09093041749706529</v>
+        <v>0.1032366611995433</v>
       </c>
       <c r="D53">
-        <v>-0.003686090005753718</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.009905191181901371</v>
+      </c>
+      <c r="E53">
+        <v>0.1112582378344966</v>
+      </c>
+      <c r="F53">
+        <v>0.07849724248065947</v>
+      </c>
+      <c r="G53">
+        <v>0.05664367768876349</v>
+      </c>
+      <c r="H53">
+        <v>0.001586267442603695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02529730467226862</v>
+        <v>0.02508184568375784</v>
       </c>
       <c r="C54">
-        <v>0.02832310942096216</v>
+        <v>0.03505578061768182</v>
       </c>
       <c r="D54">
-        <v>0.09243132261557509</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08728667615233587</v>
+      </c>
+      <c r="E54">
+        <v>0.03771893113092957</v>
+      </c>
+      <c r="F54">
+        <v>-0.001161728449319511</v>
+      </c>
+      <c r="G54">
+        <v>-0.05478647503639146</v>
+      </c>
+      <c r="H54">
+        <v>-0.0817115188012164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08857278220015523</v>
+        <v>0.08308971668867325</v>
       </c>
       <c r="C55">
-        <v>0.06532653305564037</v>
+        <v>0.08133902171943454</v>
       </c>
       <c r="D55">
-        <v>-0.01764402102949487</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0098813019075183</v>
+      </c>
+      <c r="E55">
+        <v>0.05427685796955277</v>
+      </c>
+      <c r="F55">
+        <v>0.05494137280381876</v>
+      </c>
+      <c r="G55">
+        <v>0.032779717080301</v>
+      </c>
+      <c r="H55">
+        <v>0.003928976262607403</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1389918932891243</v>
+        <v>0.1292496537659398</v>
       </c>
       <c r="C56">
-        <v>0.09951308918084699</v>
+        <v>0.1277871211019611</v>
       </c>
       <c r="D56">
-        <v>-0.006570578651026378</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0101222088864331</v>
+      </c>
+      <c r="E56">
+        <v>0.05921116817121348</v>
+      </c>
+      <c r="F56">
+        <v>0.05109845664291434</v>
+      </c>
+      <c r="G56">
+        <v>0.01545302993623744</v>
+      </c>
+      <c r="H56">
+        <v>0.04460615827713372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002001672444410266</v>
+        <v>0.01484903934171013</v>
       </c>
       <c r="C58">
-        <v>0.005216475387725827</v>
+        <v>0.0314061126426788</v>
       </c>
       <c r="D58">
-        <v>0.278053748151759</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3276610421691762</v>
+      </c>
+      <c r="E58">
+        <v>0.1418593128420908</v>
+      </c>
+      <c r="F58">
+        <v>0.08395814548019488</v>
+      </c>
+      <c r="G58">
+        <v>-0.005099573246147242</v>
+      </c>
+      <c r="H58">
+        <v>0.06779313611592148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.148828171359336</v>
+        <v>0.182062506686464</v>
       </c>
       <c r="C59">
-        <v>-0.1804384374720694</v>
+        <v>-0.1669975555631264</v>
       </c>
       <c r="D59">
-        <v>0.03533648370045407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05301242438032466</v>
+      </c>
+      <c r="E59">
+        <v>0.02898490143527038</v>
+      </c>
+      <c r="F59">
+        <v>-0.03449300831472623</v>
+      </c>
+      <c r="G59">
+        <v>0.006990056727904577</v>
+      </c>
+      <c r="H59">
+        <v>0.02280847514039821</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2445507335640748</v>
+        <v>0.2277510326475054</v>
       </c>
       <c r="C60">
-        <v>0.07545253529495562</v>
+        <v>0.1058520375413064</v>
       </c>
       <c r="D60">
-        <v>0.2205525951469672</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1362222210156142</v>
+      </c>
+      <c r="E60">
+        <v>-0.3452920240527123</v>
+      </c>
+      <c r="F60">
+        <v>-0.02943272407869843</v>
+      </c>
+      <c r="G60">
+        <v>0.07058819727671201</v>
+      </c>
+      <c r="H60">
+        <v>0.1260785869108012</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04257085414959771</v>
+        <v>0.03941330209481543</v>
       </c>
       <c r="C61">
-        <v>0.05295944121851005</v>
+        <v>0.06293270170377149</v>
       </c>
       <c r="D61">
-        <v>0.1012255112876245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09294982952322917</v>
+      </c>
+      <c r="E61">
+        <v>0.00235155987837677</v>
+      </c>
+      <c r="F61">
+        <v>-0.01554255335244899</v>
+      </c>
+      <c r="G61">
+        <v>-0.01813035681644108</v>
+      </c>
+      <c r="H61">
+        <v>-0.05890962123524223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01407304462800775</v>
+        <v>0.0143339340478548</v>
       </c>
       <c r="C63">
-        <v>0.02504259994217287</v>
+        <v>0.03233743786097006</v>
       </c>
       <c r="D63">
-        <v>0.06028242180183868</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06642352615246773</v>
+      </c>
+      <c r="E63">
+        <v>0.02317371802645134</v>
+      </c>
+      <c r="F63">
+        <v>0.02129247103715537</v>
+      </c>
+      <c r="G63">
+        <v>-0.01007206946741028</v>
+      </c>
+      <c r="H63">
+        <v>-0.05850114247239679</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05518857224042032</v>
+        <v>0.05087718717776411</v>
       </c>
       <c r="C64">
-        <v>0.0743784276815206</v>
+        <v>0.08345349565208771</v>
       </c>
       <c r="D64">
-        <v>0.05580334281788092</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0536197688138392</v>
+      </c>
+      <c r="E64">
+        <v>0.02622230530848573</v>
+      </c>
+      <c r="F64">
+        <v>-0.01031704705792702</v>
+      </c>
+      <c r="G64">
+        <v>0.03922643259852285</v>
+      </c>
+      <c r="H64">
+        <v>-0.05039451188113665</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04210300785571972</v>
+        <v>0.04167602729468162</v>
       </c>
       <c r="C65">
-        <v>0.01487775328775612</v>
+        <v>0.02707099583346509</v>
       </c>
       <c r="D65">
-        <v>0.1249603287236579</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1220780516072615</v>
+      </c>
+      <c r="E65">
+        <v>-0.002977938592764995</v>
+      </c>
+      <c r="F65">
+        <v>0.008027129300678865</v>
+      </c>
+      <c r="G65">
+        <v>-0.007273145676110841</v>
+      </c>
+      <c r="H65">
+        <v>-0.007468735467125821</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04034779783035593</v>
+        <v>0.03853056214777321</v>
       </c>
       <c r="C66">
-        <v>0.0594541302188036</v>
+        <v>0.07773527302251911</v>
       </c>
       <c r="D66">
-        <v>0.1066087708895521</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1280400644247036</v>
+      </c>
+      <c r="E66">
+        <v>0.01259141541148251</v>
+      </c>
+      <c r="F66">
+        <v>-0.01289355257436599</v>
+      </c>
+      <c r="G66">
+        <v>-0.02373984659859231</v>
+      </c>
+      <c r="H66">
+        <v>-0.0611981455396375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03944527084978307</v>
+        <v>0.03770868610661527</v>
       </c>
       <c r="C67">
-        <v>0.02143535086771964</v>
+        <v>0.02765836624993597</v>
       </c>
       <c r="D67">
-        <v>0.02818245606199426</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02342488670327537</v>
+      </c>
+      <c r="E67">
+        <v>0.01620025092576867</v>
+      </c>
+      <c r="F67">
+        <v>-0.002185606933116686</v>
+      </c>
+      <c r="G67">
+        <v>-0.04376056949469116</v>
+      </c>
+      <c r="H67">
+        <v>-0.03228024609922581</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1718665512146083</v>
+        <v>0.1990752144526497</v>
       </c>
       <c r="C68">
-        <v>-0.223491061656754</v>
+        <v>-0.1932620673781384</v>
       </c>
       <c r="D68">
-        <v>-0.007543339243071264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0160310193286417</v>
+      </c>
+      <c r="E68">
+        <v>0.04334804226053283</v>
+      </c>
+      <c r="F68">
+        <v>0.04236053740174891</v>
+      </c>
+      <c r="G68">
+        <v>-0.006707629942515928</v>
+      </c>
+      <c r="H68">
+        <v>-0.01675451776752606</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08229610230871695</v>
+        <v>0.07212234059884778</v>
       </c>
       <c r="C69">
-        <v>0.0878048555149594</v>
+        <v>0.09940130304242606</v>
       </c>
       <c r="D69">
-        <v>0.06561689145126387</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04678727698165565</v>
+      </c>
+      <c r="E69">
+        <v>0.02381717364441602</v>
+      </c>
+      <c r="F69">
+        <v>0.0155045647717597</v>
+      </c>
+      <c r="G69">
+        <v>-0.001027421871451744</v>
+      </c>
+      <c r="H69">
+        <v>0.01635254814771205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1525947620921924</v>
+        <v>0.1875503599137954</v>
       </c>
       <c r="C71">
-        <v>-0.2255105706823181</v>
+        <v>-0.2058374844574571</v>
       </c>
       <c r="D71">
-        <v>0.02244038805069997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.04026246630081341</v>
+      </c>
+      <c r="E71">
+        <v>0.04830634835309729</v>
+      </c>
+      <c r="F71">
+        <v>0.04737416714708878</v>
+      </c>
+      <c r="G71">
+        <v>-0.008089623598679575</v>
+      </c>
+      <c r="H71">
+        <v>0.009912613221972835</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.104460340688965</v>
+        <v>0.09894844917937334</v>
       </c>
       <c r="C72">
-        <v>0.05059805465572449</v>
+        <v>0.07883603961466976</v>
       </c>
       <c r="D72">
-        <v>0.08299371144057793</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09200708494031659</v>
+      </c>
+      <c r="E72">
+        <v>-0.03554032867976741</v>
+      </c>
+      <c r="F72">
+        <v>0.03372358875042912</v>
+      </c>
+      <c r="G72">
+        <v>0.0229099916244346</v>
+      </c>
+      <c r="H72">
+        <v>-0.05836323024698412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2593219538490521</v>
+        <v>0.2384631956330529</v>
       </c>
       <c r="C73">
-        <v>0.03996668866944289</v>
+        <v>0.09199072688578432</v>
       </c>
       <c r="D73">
-        <v>0.3362708555931445</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1841318825034163</v>
+      </c>
+      <c r="E73">
+        <v>-0.6534608465861307</v>
+      </c>
+      <c r="F73">
+        <v>-0.1019466556754377</v>
+      </c>
+      <c r="G73">
+        <v>0.1096724037796695</v>
+      </c>
+      <c r="H73">
+        <v>0.1293293873468225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1054124345438609</v>
+        <v>0.09513040995011038</v>
       </c>
       <c r="C74">
-        <v>0.07532264580979901</v>
+        <v>0.0931896929952102</v>
       </c>
       <c r="D74">
-        <v>-0.006860792849563408</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01548504775834467</v>
+      </c>
+      <c r="E74">
+        <v>0.04846101436192111</v>
+      </c>
+      <c r="F74">
+        <v>0.06353289326336485</v>
+      </c>
+      <c r="G74">
+        <v>0.06482529135186908</v>
+      </c>
+      <c r="H74">
+        <v>0.03201372905777768</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2479590903684127</v>
+        <v>0.2250761981863446</v>
       </c>
       <c r="C75">
-        <v>0.1316223731769113</v>
+        <v>0.1661400144796711</v>
       </c>
       <c r="D75">
-        <v>-0.07427375364343643</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09930292628261449</v>
+      </c>
+      <c r="E75">
+        <v>0.1080299736497497</v>
+      </c>
+      <c r="F75">
+        <v>0.01324608431451813</v>
+      </c>
+      <c r="G75">
+        <v>0.04518045810477478</v>
+      </c>
+      <c r="H75">
+        <v>0.1017176417060269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1346446267446405</v>
+        <v>0.1226404585819605</v>
       </c>
       <c r="C76">
-        <v>0.09639621938600618</v>
+        <v>0.1139675543640664</v>
       </c>
       <c r="D76">
-        <v>-0.0157503141899283</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01220585288031207</v>
+      </c>
+      <c r="E76">
+        <v>0.1146903672213462</v>
+      </c>
+      <c r="F76">
+        <v>0.0417026983444818</v>
+      </c>
+      <c r="G76">
+        <v>0.02330820536162913</v>
+      </c>
+      <c r="H76">
+        <v>-0.007239801322311443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.05006670468522127</v>
+        <v>0.05784872337403579</v>
       </c>
       <c r="C77">
-        <v>0.06626174358647532</v>
+        <v>0.07026818805529882</v>
       </c>
       <c r="D77">
-        <v>0.04583460116897457</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1279637507222955</v>
+      </c>
+      <c r="E77">
+        <v>0.2855416576105225</v>
+      </c>
+      <c r="F77">
+        <v>-0.2324319986081886</v>
+      </c>
+      <c r="G77">
+        <v>-0.2826143048164483</v>
+      </c>
+      <c r="H77">
+        <v>0.7665882195469652</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03872630893604927</v>
+        <v>0.04379669588635824</v>
       </c>
       <c r="C78">
-        <v>0.05364258360659849</v>
+        <v>0.06958984529336046</v>
       </c>
       <c r="D78">
-        <v>0.1236271021345642</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1388268351573609</v>
+      </c>
+      <c r="E78">
+        <v>0.02335589098922164</v>
+      </c>
+      <c r="F78">
+        <v>0.02646643553273484</v>
+      </c>
+      <c r="G78">
+        <v>-0.0102818104512232</v>
+      </c>
+      <c r="H78">
+        <v>0.000505205742073088</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02774796296477668</v>
+        <v>0.04642392284612797</v>
       </c>
       <c r="C79">
-        <v>0.0809322919644663</v>
+        <v>0.09664107025826361</v>
       </c>
       <c r="D79">
-        <v>-0.0796654756133305</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02849547228644275</v>
+      </c>
+      <c r="E79">
+        <v>0.2204790665174159</v>
+      </c>
+      <c r="F79">
+        <v>0.225698780207487</v>
+      </c>
+      <c r="G79">
+        <v>0.7919911203845116</v>
+      </c>
+      <c r="H79">
+        <v>0.1348503184293923</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02779730619958923</v>
+        <v>0.02379112127095639</v>
       </c>
       <c r="C80">
-        <v>0.04177622319344492</v>
+        <v>0.04675691200673562</v>
       </c>
       <c r="D80">
-        <v>0.008899942405612966</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0199322010330152</v>
+      </c>
+      <c r="E80">
+        <v>0.02055748399867908</v>
+      </c>
+      <c r="F80">
+        <v>0.001035992609202215</v>
+      </c>
+      <c r="G80">
+        <v>-0.02001489910929091</v>
+      </c>
+      <c r="H80">
+        <v>-0.05109488539055888</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1395295672307298</v>
+        <v>0.1231950406722328</v>
       </c>
       <c r="C81">
-        <v>0.1052262676708129</v>
+        <v>0.1221783393146014</v>
       </c>
       <c r="D81">
-        <v>-0.06680826448334881</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0765477491539375</v>
+      </c>
+      <c r="E81">
+        <v>0.1089161239862513</v>
+      </c>
+      <c r="F81">
+        <v>0.0375119720781712</v>
+      </c>
+      <c r="G81">
+        <v>0.02855164960148776</v>
+      </c>
+      <c r="H81">
+        <v>0.0219661030105288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3062189052240465</v>
+        <v>0.2549535904243232</v>
       </c>
       <c r="C82">
-        <v>0.2715123706664723</v>
+        <v>0.2704074936437166</v>
       </c>
       <c r="D82">
-        <v>-0.2485937225938842</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2509406906503159</v>
+      </c>
+      <c r="E82">
+        <v>-0.02681590908016618</v>
+      </c>
+      <c r="F82">
+        <v>0.0646220886785687</v>
+      </c>
+      <c r="G82">
+        <v>-0.2160543193906425</v>
+      </c>
+      <c r="H82">
+        <v>0.03177027601847209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02679602147628565</v>
+        <v>0.02112549602941617</v>
       </c>
       <c r="C83">
-        <v>0.05381044718179207</v>
+        <v>0.05075512963639636</v>
       </c>
       <c r="D83">
-        <v>0.0452662194257831</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04788544052348565</v>
+      </c>
+      <c r="E83">
+        <v>0.02587320850509756</v>
+      </c>
+      <c r="F83">
+        <v>-0.04240764695017019</v>
+      </c>
+      <c r="G83">
+        <v>-0.06171446713725381</v>
+      </c>
+      <c r="H83">
+        <v>0.08760122388251826</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0006030371332689879</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004593912782307354</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01780416271155653</v>
+      </c>
+      <c r="E84">
+        <v>0.01876289508491841</v>
+      </c>
+      <c r="F84">
+        <v>0.01238200720632183</v>
+      </c>
+      <c r="G84">
+        <v>-0.004616456894094916</v>
+      </c>
+      <c r="H84">
+        <v>-0.01910709914118724</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1736149814594143</v>
+        <v>0.1552067001701079</v>
       </c>
       <c r="C85">
-        <v>0.1087083536334262</v>
+        <v>0.1384713941395735</v>
       </c>
       <c r="D85">
-        <v>-0.03485749601782425</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.06161981395203978</v>
+      </c>
+      <c r="E85">
+        <v>0.04638524050751612</v>
+      </c>
+      <c r="F85">
+        <v>0.03813291467834565</v>
+      </c>
+      <c r="G85">
+        <v>0.1123780551608294</v>
+      </c>
+      <c r="H85">
+        <v>-0.008202690856948769</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01353487289149287</v>
+        <v>0.01973993403778477</v>
       </c>
       <c r="C86">
-        <v>0.0352872550720262</v>
+        <v>0.02602296777063975</v>
       </c>
       <c r="D86">
-        <v>0.127368791321026</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1207275587904018</v>
+      </c>
+      <c r="E86">
+        <v>0.01762607939308906</v>
+      </c>
+      <c r="F86">
+        <v>-0.003114783258196513</v>
+      </c>
+      <c r="G86">
+        <v>-0.06231786851290846</v>
+      </c>
+      <c r="H86">
+        <v>0.04228228493944172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02633501594475515</v>
+        <v>0.03528943984937141</v>
       </c>
       <c r="C87">
-        <v>0.008545208240560549</v>
+        <v>0.02580280346053567</v>
       </c>
       <c r="D87">
-        <v>0.0987355167069764</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1409472112312422</v>
+      </c>
+      <c r="E87">
+        <v>0.08652154694163931</v>
+      </c>
+      <c r="F87">
+        <v>0.0193179759579269</v>
+      </c>
+      <c r="G87">
+        <v>-0.03179086534576123</v>
+      </c>
+      <c r="H87">
+        <v>-0.04207430466103332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07396979894163558</v>
+        <v>0.06757879198093432</v>
       </c>
       <c r="C88">
-        <v>0.03987481943235831</v>
+        <v>0.05490935672078</v>
       </c>
       <c r="D88">
-        <v>0.04968713649993026</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02602544126278911</v>
+      </c>
+      <c r="E88">
+        <v>-0.002183609260051211</v>
+      </c>
+      <c r="F88">
+        <v>0.02230951553559614</v>
+      </c>
+      <c r="G88">
+        <v>0.003557148254109552</v>
+      </c>
+      <c r="H88">
+        <v>-0.03553118719726225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2403832915770862</v>
+        <v>0.2880441489576725</v>
       </c>
       <c r="C89">
-        <v>-0.402769805975213</v>
+        <v>-0.3475670138675135</v>
       </c>
       <c r="D89">
-        <v>-0.02839113196683393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.006747803672926736</v>
+      </c>
+      <c r="E89">
+        <v>0.06251351223277142</v>
+      </c>
+      <c r="F89">
+        <v>-0.01312265520734319</v>
+      </c>
+      <c r="G89">
+        <v>0.0107074419820503</v>
+      </c>
+      <c r="H89">
+        <v>-0.1044113248614843</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2123030001123831</v>
+        <v>0.2433973070299675</v>
       </c>
       <c r="C90">
-        <v>-0.2913343250995067</v>
+        <v>-0.2470194984618395</v>
       </c>
       <c r="D90">
-        <v>-0.004486230762679069</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01869743643289446</v>
+      </c>
+      <c r="E90">
+        <v>0.04775655864533546</v>
+      </c>
+      <c r="F90">
+        <v>0.006281332951932136</v>
+      </c>
+      <c r="G90">
+        <v>-0.06585706034891867</v>
+      </c>
+      <c r="H90">
+        <v>-0.01724221445808355</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1764595488252561</v>
+        <v>0.1544921637996978</v>
       </c>
       <c r="C91">
-        <v>0.1473333457310272</v>
+        <v>0.1581485848355815</v>
       </c>
       <c r="D91">
-        <v>-0.08645536858137501</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0872639539709526</v>
+      </c>
+      <c r="E91">
+        <v>0.1071904202216923</v>
+      </c>
+      <c r="F91">
+        <v>0.04127144702272586</v>
+      </c>
+      <c r="G91">
+        <v>0.09253144833734271</v>
+      </c>
+      <c r="H91">
+        <v>0.07203272980033795</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1844538877478112</v>
+        <v>0.2289315540146408</v>
       </c>
       <c r="C92">
-        <v>-0.278611133823113</v>
+        <v>-0.2682670041156991</v>
       </c>
       <c r="D92">
-        <v>0.01068425672561599</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0268374383680334</v>
+      </c>
+      <c r="E92">
+        <v>0.0812223569455489</v>
+      </c>
+      <c r="F92">
+        <v>0.003407946999068802</v>
+      </c>
+      <c r="G92">
+        <v>-0.03241993072657402</v>
+      </c>
+      <c r="H92">
+        <v>0.002049889891674724</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2346970650666171</v>
+        <v>0.2659725598262684</v>
       </c>
       <c r="C93">
-        <v>-0.2973291999324838</v>
+        <v>-0.257284883657496</v>
       </c>
       <c r="D93">
-        <v>0.003009021973138177</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.004958125112444658</v>
+      </c>
+      <c r="E93">
+        <v>-0.002347302406732673</v>
+      </c>
+      <c r="F93">
+        <v>0.009860168589139285</v>
+      </c>
+      <c r="G93">
+        <v>0.01697859006556272</v>
+      </c>
+      <c r="H93">
+        <v>-0.006690533501664043</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3754187806487908</v>
+        <v>0.3265061216939039</v>
       </c>
       <c r="C94">
-        <v>0.2288011958151334</v>
+        <v>0.264838892753246</v>
       </c>
       <c r="D94">
-        <v>-0.4385247411434679</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4293282857837336</v>
+      </c>
+      <c r="E94">
+        <v>0.04857683742933883</v>
+      </c>
+      <c r="F94">
+        <v>-0.05818236169019759</v>
+      </c>
+      <c r="G94">
+        <v>-0.2114944828224951</v>
+      </c>
+      <c r="H94">
+        <v>-0.2681030216126309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07960862567576775</v>
+        <v>0.0718303954635746</v>
       </c>
       <c r="C95">
-        <v>0.06229238016939437</v>
+        <v>0.06773581350437879</v>
       </c>
       <c r="D95">
-        <v>0.1306119430428399</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0897104064384134</v>
+      </c>
+      <c r="E95">
+        <v>0.1712401477069675</v>
+      </c>
+      <c r="F95">
+        <v>-0.8799304944364886</v>
+      </c>
+      <c r="G95">
+        <v>0.2389745805611803</v>
+      </c>
+      <c r="H95">
+        <v>-0.2058090232803599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1708608145032241</v>
+        <v>0.1630845468593676</v>
       </c>
       <c r="C98">
-        <v>0.03569585783670914</v>
+        <v>0.07059408946996668</v>
       </c>
       <c r="D98">
-        <v>0.1811114334594822</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1332816451938852</v>
+      </c>
+      <c r="E98">
+        <v>-0.3060054973861489</v>
+      </c>
+      <c r="F98">
+        <v>0.004519132305205124</v>
+      </c>
+      <c r="G98">
+        <v>0.05912538017216922</v>
+      </c>
+      <c r="H98">
+        <v>0.07524971592584691</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001684678492103433</v>
+        <v>0.00427509953454169</v>
       </c>
       <c r="C101">
-        <v>0.01964213918620046</v>
+        <v>0.02184915991706934</v>
       </c>
       <c r="D101">
-        <v>0.06995039454758779</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09054346813254804</v>
+      </c>
+      <c r="E101">
+        <v>0.02513702437065419</v>
+      </c>
+      <c r="F101">
+        <v>0.0226643757200652</v>
+      </c>
+      <c r="G101">
+        <v>-0.02135727792472276</v>
+      </c>
+      <c r="H101">
+        <v>-0.1040827610133104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1246762343555644</v>
+        <v>0.1047962327930422</v>
       </c>
       <c r="C102">
-        <v>0.1214719664582867</v>
+        <v>0.1223872447368925</v>
       </c>
       <c r="D102">
-        <v>-0.04861790790107343</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06386387092223882</v>
+      </c>
+      <c r="E102">
+        <v>0.03301946687446633</v>
+      </c>
+      <c r="F102">
+        <v>-0.009440288735099705</v>
+      </c>
+      <c r="G102">
+        <v>-0.01151827700498943</v>
+      </c>
+      <c r="H102">
+        <v>0.03801363422269924</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
